--- a/AlgoritmosBusqueda.xlsx
+++ b/AlgoritmosBusqueda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -471,10 +471,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -527,16 +527,2270 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>17</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>17</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="n">
+        <v>17</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>46</v>
+      </c>
+      <c r="D45" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C46" t="n">
+        <v>47</v>
+      </c>
+      <c r="D46" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>48</v>
+      </c>
+      <c r="D47" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>8</v>
+      </c>
+      <c r="B48" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" t="n">
+        <v>49</v>
+      </c>
+      <c r="D48" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9</v>
+      </c>
+      <c r="B49" t="n">
+        <v>14</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>8</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15</v>
+      </c>
+      <c r="C50" t="n">
+        <v>51</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>9</v>
+      </c>
+      <c r="B51" t="n">
+        <v>15</v>
+      </c>
+      <c r="C51" t="n">
+        <v>52</v>
+      </c>
+      <c r="D51" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16</v>
+      </c>
+      <c r="C52" t="n">
+        <v>53</v>
+      </c>
+      <c r="D52" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="n">
+        <v>16</v>
+      </c>
+      <c r="C53" t="n">
+        <v>54</v>
+      </c>
+      <c r="D53" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>17</v>
+      </c>
+      <c r="C54" t="n">
+        <v>55</v>
+      </c>
+      <c r="D54" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" t="n">
+        <v>17</v>
+      </c>
+      <c r="C55" t="n">
+        <v>56</v>
+      </c>
+      <c r="D55" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" t="n">
+        <v>18</v>
+      </c>
+      <c r="C56" t="n">
+        <v>57</v>
+      </c>
+      <c r="D56" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19</v>
+      </c>
+      <c r="C57" t="n">
+        <v>58</v>
+      </c>
+      <c r="D57" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20</v>
+      </c>
+      <c r="C58" t="n">
+        <v>59</v>
+      </c>
+      <c r="D58" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>21</v>
+      </c>
+      <c r="C59" t="n">
+        <v>60</v>
+      </c>
+      <c r="D59" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>21</v>
+      </c>
+      <c r="C60" t="n">
+        <v>61</v>
+      </c>
+      <c r="D60" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" t="n">
+        <v>62</v>
+      </c>
+      <c r="D61" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19</v>
+      </c>
+      <c r="C62" t="n">
+        <v>63</v>
+      </c>
+      <c r="D62" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>18</v>
+      </c>
+      <c r="C63" t="n">
+        <v>64</v>
+      </c>
+      <c r="D63" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19</v>
+      </c>
+      <c r="C64" t="n">
+        <v>65</v>
+      </c>
+      <c r="D64" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C65" t="n">
+        <v>66</v>
+      </c>
+      <c r="D65" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="n">
+        <v>21</v>
+      </c>
+      <c r="C66" t="n">
+        <v>67</v>
+      </c>
+      <c r="D66" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="n">
+        <v>22</v>
+      </c>
+      <c r="C67" t="n">
+        <v>68</v>
+      </c>
+      <c r="D67" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>22</v>
+      </c>
+      <c r="C68" t="n">
+        <v>69</v>
+      </c>
+      <c r="D68" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6</v>
+      </c>
+      <c r="B69" t="n">
+        <v>21</v>
+      </c>
+      <c r="C69" t="n">
+        <v>70</v>
+      </c>
+      <c r="D69" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="C70" t="n">
+        <v>71</v>
+      </c>
+      <c r="D70" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>8</v>
+      </c>
+      <c r="B71" t="n">
+        <v>19</v>
+      </c>
+      <c r="C71" t="n">
+        <v>72</v>
+      </c>
+      <c r="D71" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>18</v>
+      </c>
+      <c r="C72" t="n">
+        <v>73</v>
+      </c>
+      <c r="D72" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>74</v>
+      </c>
+      <c r="D73" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" t="n">
+        <v>75</v>
+      </c>
+      <c r="D74" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="n">
+        <v>15</v>
+      </c>
+      <c r="C75" t="n">
+        <v>76</v>
+      </c>
+      <c r="D75" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10</v>
+      </c>
+      <c r="B76" t="n">
+        <v>14</v>
+      </c>
+      <c r="C76" t="n">
+        <v>77</v>
+      </c>
+      <c r="D76" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13</v>
+      </c>
+      <c r="C77" t="n">
+        <v>78</v>
+      </c>
+      <c r="D77" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11</v>
+      </c>
+      <c r="B78" t="n">
+        <v>14</v>
+      </c>
+      <c r="C78" t="n">
+        <v>79</v>
+      </c>
+      <c r="D78" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11</v>
+      </c>
+      <c r="B79" t="n">
+        <v>15</v>
+      </c>
+      <c r="C79" t="n">
+        <v>80</v>
+      </c>
+      <c r="D79" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>12</v>
+      </c>
+      <c r="B80" t="n">
+        <v>15</v>
+      </c>
+      <c r="C80" t="n">
+        <v>81</v>
+      </c>
+      <c r="D80" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11</v>
+      </c>
+      <c r="B81" t="n">
+        <v>16</v>
+      </c>
+      <c r="C81" t="n">
+        <v>82</v>
+      </c>
+      <c r="D81" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>12</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16</v>
+      </c>
+      <c r="C82" t="n">
+        <v>83</v>
+      </c>
+      <c r="D82" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11</v>
+      </c>
+      <c r="B83" t="n">
+        <v>17</v>
+      </c>
+      <c r="C83" t="n">
+        <v>84</v>
+      </c>
+      <c r="D83" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18</v>
+      </c>
+      <c r="C84" t="n">
+        <v>85</v>
+      </c>
+      <c r="D84" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>9</v>
+      </c>
+      <c r="B85" t="n">
+        <v>19</v>
+      </c>
+      <c r="C85" t="n">
+        <v>86</v>
+      </c>
+      <c r="D85" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8</v>
+      </c>
+      <c r="B86" t="n">
+        <v>20</v>
+      </c>
+      <c r="C86" t="n">
+        <v>87</v>
+      </c>
+      <c r="D86" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7</v>
+      </c>
+      <c r="B87" t="n">
+        <v>21</v>
+      </c>
+      <c r="C87" t="n">
+        <v>88</v>
+      </c>
+      <c r="D87" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6</v>
+      </c>
+      <c r="B88" t="n">
+        <v>22</v>
+      </c>
+      <c r="C88" t="n">
+        <v>89</v>
+      </c>
+      <c r="D88" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5</v>
+      </c>
+      <c r="B89" t="n">
+        <v>23</v>
+      </c>
+      <c r="C89" t="n">
+        <v>90</v>
+      </c>
+      <c r="D89" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6</v>
+      </c>
+      <c r="B90" t="n">
+        <v>23</v>
+      </c>
+      <c r="C90" t="n">
+        <v>101</v>
+      </c>
+      <c r="D90" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7</v>
+      </c>
+      <c r="B91" t="n">
+        <v>22</v>
+      </c>
+      <c r="C91" t="n">
+        <v>102</v>
+      </c>
+      <c r="D91" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>8</v>
+      </c>
+      <c r="B92" t="n">
+        <v>21</v>
+      </c>
+      <c r="C92" t="n">
+        <v>103</v>
+      </c>
+      <c r="D92" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>9</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20</v>
+      </c>
+      <c r="C93" t="n">
+        <v>104</v>
+      </c>
+      <c r="D93" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19</v>
+      </c>
+      <c r="C94" t="n">
+        <v>105</v>
+      </c>
+      <c r="D94" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11</v>
+      </c>
+      <c r="B95" t="n">
+        <v>18</v>
+      </c>
+      <c r="C95" t="n">
+        <v>106</v>
+      </c>
+      <c r="D95" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>12</v>
+      </c>
+      <c r="B96" t="n">
+        <v>17</v>
+      </c>
+      <c r="C96" t="n">
+        <v>107</v>
+      </c>
+      <c r="D96" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>13</v>
+      </c>
+      <c r="B97" t="n">
+        <v>16</v>
+      </c>
+      <c r="C97" t="n">
+        <v>108</v>
+      </c>
+      <c r="D97" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>13</v>
+      </c>
+      <c r="B98" t="n">
+        <v>17</v>
+      </c>
+      <c r="C98" t="n">
+        <v>109</v>
+      </c>
+      <c r="D98" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>12</v>
+      </c>
+      <c r="B99" t="n">
+        <v>18</v>
+      </c>
+      <c r="C99" t="n">
+        <v>110</v>
+      </c>
+      <c r="D99" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19</v>
+      </c>
+      <c r="C100" t="n">
+        <v>111</v>
+      </c>
+      <c r="D100" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10</v>
+      </c>
+      <c r="B101" t="n">
+        <v>20</v>
+      </c>
+      <c r="C101" t="n">
+        <v>112</v>
+      </c>
+      <c r="D101" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>9</v>
+      </c>
+      <c r="B102" t="n">
+        <v>21</v>
+      </c>
+      <c r="C102" t="n">
+        <v>113</v>
+      </c>
+      <c r="D102" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>8</v>
+      </c>
+      <c r="B103" t="n">
+        <v>22</v>
+      </c>
+      <c r="C103" t="n">
+        <v>114</v>
+      </c>
+      <c r="D103" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23</v>
+      </c>
+      <c r="C104" t="n">
+        <v>115</v>
+      </c>
+      <c r="D104" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>8</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23</v>
+      </c>
+      <c r="C105" t="n">
+        <v>116</v>
+      </c>
+      <c r="D105" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>9</v>
+      </c>
+      <c r="B106" t="n">
+        <v>22</v>
+      </c>
+      <c r="C106" t="n">
+        <v>117</v>
+      </c>
+      <c r="D106" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10</v>
+      </c>
+      <c r="B107" t="n">
+        <v>21</v>
+      </c>
+      <c r="C107" t="n">
+        <v>118</v>
+      </c>
+      <c r="D107" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>11</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20</v>
+      </c>
+      <c r="C108" t="n">
+        <v>119</v>
+      </c>
+      <c r="D108" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>12</v>
+      </c>
+      <c r="B109" t="n">
+        <v>19</v>
+      </c>
+      <c r="C109" t="n">
+        <v>120</v>
+      </c>
+      <c r="D109" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>13</v>
+      </c>
+      <c r="B110" t="n">
+        <v>18</v>
+      </c>
+      <c r="C110" t="n">
+        <v>121</v>
+      </c>
+      <c r="D110" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>14</v>
+      </c>
+      <c r="B111" t="n">
+        <v>17</v>
+      </c>
+      <c r="C111" t="n">
+        <v>122</v>
+      </c>
+      <c r="D111" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>14</v>
+      </c>
+      <c r="B112" t="n">
+        <v>18</v>
+      </c>
+      <c r="C112" t="n">
+        <v>123</v>
+      </c>
+      <c r="D112" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>13</v>
+      </c>
+      <c r="B113" t="n">
+        <v>19</v>
+      </c>
+      <c r="C113" t="n">
+        <v>124</v>
+      </c>
+      <c r="D113" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>12</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20</v>
+      </c>
+      <c r="C114" t="n">
+        <v>125</v>
+      </c>
+      <c r="D114" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>11</v>
+      </c>
+      <c r="B115" t="n">
+        <v>21</v>
+      </c>
+      <c r="C115" t="n">
+        <v>126</v>
+      </c>
+      <c r="D115" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" t="n">
+        <v>22</v>
+      </c>
+      <c r="C116" t="n">
+        <v>127</v>
+      </c>
+      <c r="D116" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>9</v>
+      </c>
+      <c r="B117" t="n">
+        <v>23</v>
+      </c>
+      <c r="C117" t="n">
+        <v>128</v>
+      </c>
+      <c r="D117" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" t="n">
+        <v>23</v>
+      </c>
+      <c r="C118" t="n">
+        <v>129</v>
+      </c>
+      <c r="D118" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>11</v>
+      </c>
+      <c r="B119" t="n">
+        <v>22</v>
+      </c>
+      <c r="C119" t="n">
+        <v>130</v>
+      </c>
+      <c r="D119" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>12</v>
+      </c>
+      <c r="B120" t="n">
+        <v>21</v>
+      </c>
+      <c r="C120" t="n">
+        <v>131</v>
+      </c>
+      <c r="D120" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>13</v>
+      </c>
+      <c r="B121" t="n">
+        <v>20</v>
+      </c>
+      <c r="C121" t="n">
+        <v>132</v>
+      </c>
+      <c r="D121" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>14</v>
+      </c>
+      <c r="B122" t="n">
+        <v>19</v>
+      </c>
+      <c r="C122" t="n">
+        <v>133</v>
+      </c>
+      <c r="D122" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>15</v>
+      </c>
+      <c r="B123" t="n">
+        <v>18</v>
+      </c>
+      <c r="C123" t="n">
+        <v>134</v>
+      </c>
+      <c r="D123" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>16</v>
+      </c>
+      <c r="B124" t="n">
+        <v>18</v>
+      </c>
+      <c r="C124" t="n">
+        <v>135</v>
+      </c>
+      <c r="D124" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>15</v>
+      </c>
+      <c r="B125" t="n">
+        <v>19</v>
+      </c>
+      <c r="C125" t="n">
+        <v>136</v>
+      </c>
+      <c r="D125" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>14</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20</v>
+      </c>
+      <c r="C126" t="n">
+        <v>137</v>
+      </c>
+      <c r="D126" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>13</v>
+      </c>
+      <c r="B127" t="n">
+        <v>21</v>
+      </c>
+      <c r="C127" t="n">
+        <v>138</v>
+      </c>
+      <c r="D127" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22</v>
+      </c>
+      <c r="C128" t="n">
+        <v>139</v>
+      </c>
+      <c r="D128" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>11</v>
+      </c>
+      <c r="B129" t="n">
+        <v>23</v>
+      </c>
+      <c r="C129" t="n">
+        <v>140</v>
+      </c>
+      <c r="D129" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>12</v>
+      </c>
+      <c r="B130" t="n">
+        <v>23</v>
+      </c>
+      <c r="C130" t="n">
+        <v>141</v>
+      </c>
+      <c r="D130" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>13</v>
+      </c>
+      <c r="B131" t="n">
+        <v>22</v>
+      </c>
+      <c r="C131" t="n">
+        <v>142</v>
+      </c>
+      <c r="D131" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>14</v>
+      </c>
+      <c r="B132" t="n">
+        <v>21</v>
+      </c>
+      <c r="C132" t="n">
+        <v>143</v>
+      </c>
+      <c r="D132" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>15</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20</v>
+      </c>
+      <c r="C133" t="n">
+        <v>144</v>
+      </c>
+      <c r="D133" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>16</v>
+      </c>
+      <c r="B134" t="n">
+        <v>19</v>
+      </c>
+      <c r="C134" t="n">
+        <v>145</v>
+      </c>
+      <c r="D134" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>17</v>
+      </c>
+      <c r="B135" t="n">
+        <v>18</v>
+      </c>
+      <c r="C135" t="n">
+        <v>146</v>
+      </c>
+      <c r="D135" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>17</v>
+      </c>
+      <c r="B136" t="n">
+        <v>17</v>
+      </c>
+      <c r="C136" t="n">
+        <v>147</v>
+      </c>
+      <c r="D136" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>16</v>
+      </c>
+      <c r="B137" t="n">
+        <v>16</v>
+      </c>
+      <c r="C137" t="n">
+        <v>148</v>
+      </c>
+      <c r="D137" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>15</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15</v>
+      </c>
+      <c r="C138" t="n">
+        <v>149</v>
+      </c>
+      <c r="D138" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>14</v>
+      </c>
+      <c r="B139" t="n">
+        <v>14</v>
+      </c>
+      <c r="C139" t="n">
+        <v>150</v>
+      </c>
+      <c r="D139" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>13</v>
+      </c>
+      <c r="B140" t="n">
+        <v>13</v>
+      </c>
+      <c r="C140" t="n">
+        <v>151</v>
+      </c>
+      <c r="D140" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>13</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12</v>
+      </c>
+      <c r="C141" t="n">
+        <v>152</v>
+      </c>
+      <c r="D141" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>14</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12</v>
+      </c>
+      <c r="C142" t="n">
+        <v>153</v>
+      </c>
+      <c r="D142" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>15</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11</v>
+      </c>
+      <c r="C143" t="n">
+        <v>154</v>
+      </c>
+      <c r="D143" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>14</v>
+      </c>
+      <c r="B144" t="n">
+        <v>10</v>
+      </c>
+      <c r="C144" t="n">
+        <v>155</v>
+      </c>
+      <c r="D144" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>14</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>156</v>
+      </c>
+      <c r="D145" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>15</v>
+      </c>
+      <c r="B146" t="n">
+        <v>10</v>
+      </c>
+      <c r="C146" t="n">
+        <v>157</v>
+      </c>
+      <c r="D146" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>16</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11</v>
+      </c>
+      <c r="C147" t="n">
+        <v>158</v>
+      </c>
+      <c r="D147" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>15</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12</v>
+      </c>
+      <c r="C148" t="n">
+        <v>159</v>
+      </c>
+      <c r="D148" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14</v>
+      </c>
+      <c r="B149" t="n">
+        <v>13</v>
+      </c>
+      <c r="C149" t="n">
+        <v>160</v>
+      </c>
+      <c r="D149" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>15</v>
+      </c>
+      <c r="B150" t="n">
+        <v>13</v>
+      </c>
+      <c r="C150" t="n">
+        <v>161</v>
+      </c>
+      <c r="D150" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>16</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" t="n">
+        <v>162</v>
+      </c>
+      <c r="D151" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>17</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11</v>
+      </c>
+      <c r="C152" t="n">
+        <v>163</v>
+      </c>
+      <c r="D152" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>16</v>
+      </c>
+      <c r="B153" t="n">
+        <v>10</v>
+      </c>
+      <c r="C153" t="n">
+        <v>164</v>
+      </c>
+      <c r="D153" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>15</v>
+      </c>
+      <c r="B154" t="n">
+        <v>9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>165</v>
+      </c>
+      <c r="D154" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>14</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>166</v>
+      </c>
+      <c r="D155" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>13</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>167</v>
+      </c>
+      <c r="D156" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>12</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>168</v>
+      </c>
+      <c r="D157" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>11</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>169</v>
+      </c>
+      <c r="D158" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>10</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>170</v>
+      </c>
+      <c r="D159" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>9</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>171</v>
+      </c>
+      <c r="D160" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>8</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>172</v>
+      </c>
+      <c r="D161" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>7</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>173</v>
+      </c>
+      <c r="D162" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>6</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>174</v>
+      </c>
+      <c r="D163" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>175</v>
+      </c>
+      <c r="D164" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>5</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>176</v>
+      </c>
+      <c r="D165" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>177</v>
+      </c>
+      <c r="D166" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>5</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>178</v>
+      </c>
+      <c r="D167" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5</v>
+      </c>
+      <c r="B168" t="n">
+        <v>10</v>
+      </c>
+      <c r="C168" t="n">
+        <v>179</v>
+      </c>
+      <c r="D168" t="n">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/AlgoritmosBusqueda.xlsx
+++ b/AlgoritmosBusqueda.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="bfs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="greedy" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +455,16 @@
           <t>ParentID</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nodos visitados</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -468,12 +479,873 @@
       <c r="D2" t="n">
         <v>-2</v>
       </c>
+      <c r="E2" t="n">
+        <v>430</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.324691534042358</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5</v>
       </c>
       <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>58</v>
+      </c>
+      <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>58</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76</v>
+      </c>
+      <c r="D14" t="n">
+        <v>67</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>85</v>
+      </c>
+      <c r="D15" t="n">
+        <v>76</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>95</v>
+      </c>
+      <c r="D16" t="n">
+        <v>85</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>106</v>
+      </c>
+      <c r="D17" t="n">
+        <v>95</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>118</v>
+      </c>
+      <c r="D18" t="n">
+        <v>106</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131</v>
+      </c>
+      <c r="D19" t="n">
+        <v>118</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>144</v>
+      </c>
+      <c r="D20" t="n">
+        <v>131</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="n">
+        <v>153</v>
+      </c>
+      <c r="D21" t="n">
+        <v>144</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" t="n">
+        <v>161</v>
+      </c>
+      <c r="D22" t="n">
+        <v>153</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>170</v>
+      </c>
+      <c r="D23" t="n">
+        <v>161</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>180</v>
+      </c>
+      <c r="D24" t="n">
+        <v>170</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" t="n">
+        <v>191</v>
+      </c>
+      <c r="D25" t="n">
+        <v>180</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
+        <v>202</v>
+      </c>
+      <c r="D26" t="n">
+        <v>191</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>213</v>
+      </c>
+      <c r="D27" t="n">
+        <v>202</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>224</v>
+      </c>
+      <c r="D28" t="n">
+        <v>213</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>15</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>232</v>
+      </c>
+      <c r="D29" t="n">
+        <v>224</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="n">
+        <v>239</v>
+      </c>
+      <c r="D30" t="n">
+        <v>232</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>246</v>
+      </c>
+      <c r="D31" t="n">
+        <v>239</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>253</v>
+      </c>
+      <c r="D32" t="n">
+        <v>246</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>14</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>263</v>
+      </c>
+      <c r="D33" t="n">
+        <v>253</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>14</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>273</v>
+      </c>
+      <c r="D34" t="n">
+        <v>263</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>14</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>282</v>
+      </c>
+      <c r="D35" t="n">
+        <v>273</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>13</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>291</v>
+      </c>
+      <c r="D36" t="n">
+        <v>282</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>301</v>
+      </c>
+      <c r="D37" t="n">
+        <v>291</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>312</v>
+      </c>
+      <c r="D38" t="n">
+        <v>301</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>324</v>
+      </c>
+      <c r="D39" t="n">
+        <v>312</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>336</v>
+      </c>
+      <c r="D40" t="n">
+        <v>324</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>347</v>
+      </c>
+      <c r="D41" t="n">
+        <v>336</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>356</v>
+      </c>
+      <c r="D42" t="n">
+        <v>347</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>363</v>
+      </c>
+      <c r="D43" t="n">
+        <v>356</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>369</v>
+      </c>
+      <c r="D44" t="n">
+        <v>363</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>374</v>
+      </c>
+      <c r="D45" t="n">
+        <v>369</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>379</v>
+      </c>
+      <c r="D46" t="n">
+        <v>374</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>385</v>
+      </c>
+      <c r="D47" t="n">
+        <v>379</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>393</v>
+      </c>
+      <c r="D48" t="n">
+        <v>385</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>402</v>
+      </c>
+      <c r="D49" t="n">
+        <v>393</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>412</v>
+      </c>
+      <c r="D50" t="n">
+        <v>402</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="n">
+        <v>422</v>
+      </c>
+      <c r="D51" t="n">
+        <v>412</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F168"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ParentID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nodos visitados</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>180</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.186322450637817</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
         <v>13</v>
       </c>
       <c r="C3" t="n">
@@ -482,6 +1354,8 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -496,6 +1370,8 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -510,6 +1386,8 @@
       <c r="D5" t="n">
         <v>2</v>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -524,6 +1402,8 @@
       <c r="D6" t="n">
         <v>3</v>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -538,6 +1418,8 @@
       <c r="D7" t="n">
         <v>4</v>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -552,6 +1434,8 @@
       <c r="D8" t="n">
         <v>5</v>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -566,6 +1450,8 @@
       <c r="D9" t="n">
         <v>6</v>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -580,6 +1466,8 @@
       <c r="D10" t="n">
         <v>7</v>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -594,6 +1482,8 @@
       <c r="D11" t="n">
         <v>8</v>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -608,6 +1498,8 @@
       <c r="D12" t="n">
         <v>9</v>
       </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -622,6 +1514,8 @@
       <c r="D13" t="n">
         <v>10</v>
       </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -636,6 +1530,8 @@
       <c r="D14" t="n">
         <v>11</v>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -650,6 +1546,8 @@
       <c r="D15" t="n">
         <v>12</v>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -664,6 +1562,8 @@
       <c r="D16" t="n">
         <v>13</v>
       </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -678,6 +1578,8 @@
       <c r="D17" t="n">
         <v>14</v>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -692,6 +1594,8 @@
       <c r="D18" t="n">
         <v>15</v>
       </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -706,6 +1610,8 @@
       <c r="D19" t="n">
         <v>16</v>
       </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -720,6 +1626,8 @@
       <c r="D20" t="n">
         <v>17</v>
       </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -734,6 +1642,8 @@
       <c r="D21" t="n">
         <v>18</v>
       </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -748,6 +1658,8 @@
       <c r="D22" t="n">
         <v>19</v>
       </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -762,6 +1674,8 @@
       <c r="D23" t="n">
         <v>20</v>
       </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -776,6 +1690,8 @@
       <c r="D24" t="n">
         <v>21</v>
       </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -790,6 +1706,8 @@
       <c r="D25" t="n">
         <v>22</v>
       </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -804,6 +1722,8 @@
       <c r="D26" t="n">
         <v>23</v>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -818,6 +1738,8 @@
       <c r="D27" t="n">
         <v>24</v>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -832,6 +1754,8 @@
       <c r="D28" t="n">
         <v>25</v>
       </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -846,6 +1770,8 @@
       <c r="D29" t="n">
         <v>26</v>
       </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -860,6 +1786,8 @@
       <c r="D30" t="n">
         <v>27</v>
       </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -874,6 +1802,8 @@
       <c r="D31" t="n">
         <v>28</v>
       </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -888,6 +1818,8 @@
       <c r="D32" t="n">
         <v>29</v>
       </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -902,6 +1834,8 @@
       <c r="D33" t="n">
         <v>30</v>
       </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -916,6 +1850,8 @@
       <c r="D34" t="n">
         <v>31</v>
       </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -930,6 +1866,8 @@
       <c r="D35" t="n">
         <v>32</v>
       </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -944,6 +1882,8 @@
       <c r="D36" t="n">
         <v>33</v>
       </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -958,6 +1898,8 @@
       <c r="D37" t="n">
         <v>34</v>
       </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -972,6 +1914,8 @@
       <c r="D38" t="n">
         <v>35</v>
       </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -986,6 +1930,8 @@
       <c r="D39" t="n">
         <v>36</v>
       </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1000,6 +1946,8 @@
       <c r="D40" t="n">
         <v>37</v>
       </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1014,6 +1962,8 @@
       <c r="D41" t="n">
         <v>38</v>
       </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1028,6 +1978,8 @@
       <c r="D42" t="n">
         <v>39</v>
       </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1042,6 +1994,8 @@
       <c r="D43" t="n">
         <v>40</v>
       </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1056,6 +2010,8 @@
       <c r="D44" t="n">
         <v>41</v>
       </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1070,6 +2026,8 @@
       <c r="D45" t="n">
         <v>42</v>
       </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1084,6 +2042,8 @@
       <c r="D46" t="n">
         <v>46</v>
       </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1098,6 +2058,8 @@
       <c r="D47" t="n">
         <v>47</v>
       </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1112,6 +2074,8 @@
       <c r="D48" t="n">
         <v>48</v>
       </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1126,6 +2090,8 @@
       <c r="D49" t="n">
         <v>49</v>
       </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1140,6 +2106,8 @@
       <c r="D50" t="n">
         <v>50</v>
       </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1154,6 +2122,8 @@
       <c r="D51" t="n">
         <v>51</v>
       </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1168,6 +2138,8 @@
       <c r="D52" t="n">
         <v>52</v>
       </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1182,6 +2154,8 @@
       <c r="D53" t="n">
         <v>53</v>
       </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1196,6 +2170,8 @@
       <c r="D54" t="n">
         <v>54</v>
       </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1210,6 +2186,8 @@
       <c r="D55" t="n">
         <v>55</v>
       </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1224,6 +2202,8 @@
       <c r="D56" t="n">
         <v>56</v>
       </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1238,6 +2218,8 @@
       <c r="D57" t="n">
         <v>57</v>
       </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1252,6 +2234,8 @@
       <c r="D58" t="n">
         <v>58</v>
       </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1266,6 +2250,8 @@
       <c r="D59" t="n">
         <v>59</v>
       </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1280,6 +2266,8 @@
       <c r="D60" t="n">
         <v>60</v>
       </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1294,6 +2282,8 @@
       <c r="D61" t="n">
         <v>61</v>
       </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1308,6 +2298,8 @@
       <c r="D62" t="n">
         <v>62</v>
       </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1322,6 +2314,8 @@
       <c r="D63" t="n">
         <v>63</v>
       </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1336,6 +2330,8 @@
       <c r="D64" t="n">
         <v>64</v>
       </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1350,6 +2346,8 @@
       <c r="D65" t="n">
         <v>65</v>
       </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1364,6 +2362,8 @@
       <c r="D66" t="n">
         <v>66</v>
       </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1378,6 +2378,8 @@
       <c r="D67" t="n">
         <v>67</v>
       </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1392,6 +2394,8 @@
       <c r="D68" t="n">
         <v>68</v>
       </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1406,6 +2410,8 @@
       <c r="D69" t="n">
         <v>69</v>
       </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1420,6 +2426,8 @@
       <c r="D70" t="n">
         <v>70</v>
       </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1434,6 +2442,8 @@
       <c r="D71" t="n">
         <v>71</v>
       </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1448,6 +2458,8 @@
       <c r="D72" t="n">
         <v>72</v>
       </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1462,6 +2474,8 @@
       <c r="D73" t="n">
         <v>73</v>
       </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1476,6 +2490,8 @@
       <c r="D74" t="n">
         <v>74</v>
       </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1490,6 +2506,8 @@
       <c r="D75" t="n">
         <v>75</v>
       </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1504,6 +2522,8 @@
       <c r="D76" t="n">
         <v>76</v>
       </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1518,6 +2538,8 @@
       <c r="D77" t="n">
         <v>77</v>
       </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1532,6 +2554,8 @@
       <c r="D78" t="n">
         <v>78</v>
       </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1546,6 +2570,8 @@
       <c r="D79" t="n">
         <v>79</v>
       </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1560,6 +2586,8 @@
       <c r="D80" t="n">
         <v>80</v>
       </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1574,6 +2602,8 @@
       <c r="D81" t="n">
         <v>81</v>
       </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1588,6 +2618,8 @@
       <c r="D82" t="n">
         <v>82</v>
       </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1602,6 +2634,8 @@
       <c r="D83" t="n">
         <v>83</v>
       </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1616,6 +2650,8 @@
       <c r="D84" t="n">
         <v>84</v>
       </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1630,6 +2666,8 @@
       <c r="D85" t="n">
         <v>85</v>
       </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1644,6 +2682,8 @@
       <c r="D86" t="n">
         <v>86</v>
       </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1658,6 +2698,8 @@
       <c r="D87" t="n">
         <v>87</v>
       </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1672,6 +2714,8 @@
       <c r="D88" t="n">
         <v>88</v>
       </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1686,6 +2730,8 @@
       <c r="D89" t="n">
         <v>89</v>
       </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1700,6 +2746,8 @@
       <c r="D90" t="n">
         <v>90</v>
       </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1714,6 +2762,8 @@
       <c r="D91" t="n">
         <v>101</v>
       </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1728,6 +2778,8 @@
       <c r="D92" t="n">
         <v>102</v>
       </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1742,6 +2794,8 @@
       <c r="D93" t="n">
         <v>103</v>
       </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1756,6 +2810,8 @@
       <c r="D94" t="n">
         <v>104</v>
       </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1770,6 +2826,8 @@
       <c r="D95" t="n">
         <v>105</v>
       </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1784,6 +2842,8 @@
       <c r="D96" t="n">
         <v>106</v>
       </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1798,6 +2858,8 @@
       <c r="D97" t="n">
         <v>107</v>
       </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1812,6 +2874,8 @@
       <c r="D98" t="n">
         <v>108</v>
       </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1826,6 +2890,8 @@
       <c r="D99" t="n">
         <v>109</v>
       </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1840,6 +2906,8 @@
       <c r="D100" t="n">
         <v>110</v>
       </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1854,6 +2922,8 @@
       <c r="D101" t="n">
         <v>111</v>
       </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1868,6 +2938,8 @@
       <c r="D102" t="n">
         <v>112</v>
       </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1882,6 +2954,8 @@
       <c r="D103" t="n">
         <v>113</v>
       </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1896,6 +2970,8 @@
       <c r="D104" t="n">
         <v>114</v>
       </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1910,6 +2986,8 @@
       <c r="D105" t="n">
         <v>115</v>
       </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1924,6 +3002,8 @@
       <c r="D106" t="n">
         <v>116</v>
       </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1938,6 +3018,8 @@
       <c r="D107" t="n">
         <v>117</v>
       </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1952,6 +3034,8 @@
       <c r="D108" t="n">
         <v>118</v>
       </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1966,6 +3050,8 @@
       <c r="D109" t="n">
         <v>119</v>
       </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1980,6 +3066,8 @@
       <c r="D110" t="n">
         <v>120</v>
       </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1994,6 +3082,8 @@
       <c r="D111" t="n">
         <v>121</v>
       </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2008,6 +3098,8 @@
       <c r="D112" t="n">
         <v>122</v>
       </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2022,6 +3114,8 @@
       <c r="D113" t="n">
         <v>123</v>
       </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2036,6 +3130,8 @@
       <c r="D114" t="n">
         <v>124</v>
       </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2050,6 +3146,8 @@
       <c r="D115" t="n">
         <v>125</v>
       </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2064,6 +3162,8 @@
       <c r="D116" t="n">
         <v>126</v>
       </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2078,6 +3178,8 @@
       <c r="D117" t="n">
         <v>127</v>
       </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2092,6 +3194,8 @@
       <c r="D118" t="n">
         <v>128</v>
       </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2106,6 +3210,8 @@
       <c r="D119" t="n">
         <v>129</v>
       </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2120,6 +3226,8 @@
       <c r="D120" t="n">
         <v>130</v>
       </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2134,6 +3242,8 @@
       <c r="D121" t="n">
         <v>131</v>
       </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2148,6 +3258,8 @@
       <c r="D122" t="n">
         <v>132</v>
       </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2162,6 +3274,8 @@
       <c r="D123" t="n">
         <v>133</v>
       </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2176,6 +3290,8 @@
       <c r="D124" t="n">
         <v>134</v>
       </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2190,6 +3306,8 @@
       <c r="D125" t="n">
         <v>135</v>
       </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2204,6 +3322,8 @@
       <c r="D126" t="n">
         <v>136</v>
       </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2218,6 +3338,8 @@
       <c r="D127" t="n">
         <v>137</v>
       </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2232,6 +3354,8 @@
       <c r="D128" t="n">
         <v>138</v>
       </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2246,6 +3370,8 @@
       <c r="D129" t="n">
         <v>139</v>
       </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2260,6 +3386,8 @@
       <c r="D130" t="n">
         <v>140</v>
       </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2274,6 +3402,8 @@
       <c r="D131" t="n">
         <v>141</v>
       </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2288,6 +3418,8 @@
       <c r="D132" t="n">
         <v>142</v>
       </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2302,6 +3434,8 @@
       <c r="D133" t="n">
         <v>143</v>
       </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2316,6 +3450,8 @@
       <c r="D134" t="n">
         <v>144</v>
       </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2330,6 +3466,8 @@
       <c r="D135" t="n">
         <v>145</v>
       </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2344,6 +3482,8 @@
       <c r="D136" t="n">
         <v>146</v>
       </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2358,6 +3498,8 @@
       <c r="D137" t="n">
         <v>147</v>
       </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2372,6 +3514,8 @@
       <c r="D138" t="n">
         <v>148</v>
       </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2386,6 +3530,8 @@
       <c r="D139" t="n">
         <v>149</v>
       </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2400,6 +3546,8 @@
       <c r="D140" t="n">
         <v>150</v>
       </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2414,6 +3562,8 @@
       <c r="D141" t="n">
         <v>151</v>
       </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2428,6 +3578,8 @@
       <c r="D142" t="n">
         <v>152</v>
       </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2442,6 +3594,8 @@
       <c r="D143" t="n">
         <v>153</v>
       </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2456,6 +3610,8 @@
       <c r="D144" t="n">
         <v>154</v>
       </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2470,6 +3626,8 @@
       <c r="D145" t="n">
         <v>155</v>
       </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2484,6 +3642,8 @@
       <c r="D146" t="n">
         <v>156</v>
       </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2498,6 +3658,8 @@
       <c r="D147" t="n">
         <v>157</v>
       </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2512,6 +3674,8 @@
       <c r="D148" t="n">
         <v>158</v>
       </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2526,6 +3690,8 @@
       <c r="D149" t="n">
         <v>159</v>
       </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2540,6 +3706,8 @@
       <c r="D150" t="n">
         <v>160</v>
       </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2554,6 +3722,8 @@
       <c r="D151" t="n">
         <v>161</v>
       </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2568,6 +3738,8 @@
       <c r="D152" t="n">
         <v>162</v>
       </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2582,6 +3754,8 @@
       <c r="D153" t="n">
         <v>163</v>
       </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2596,6 +3770,8 @@
       <c r="D154" t="n">
         <v>164</v>
       </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2610,6 +3786,8 @@
       <c r="D155" t="n">
         <v>165</v>
       </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2624,6 +3802,8 @@
       <c r="D156" t="n">
         <v>166</v>
       </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2638,6 +3818,8 @@
       <c r="D157" t="n">
         <v>167</v>
       </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2652,6 +3834,8 @@
       <c r="D158" t="n">
         <v>168</v>
       </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2666,6 +3850,8 @@
       <c r="D159" t="n">
         <v>169</v>
       </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2680,6 +3866,8 @@
       <c r="D160" t="n">
         <v>170</v>
       </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2694,6 +3882,8 @@
       <c r="D161" t="n">
         <v>171</v>
       </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2708,6 +3898,8 @@
       <c r="D162" t="n">
         <v>172</v>
       </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2722,6 +3914,8 @@
       <c r="D163" t="n">
         <v>173</v>
       </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2736,6 +3930,8 @@
       <c r="D164" t="n">
         <v>174</v>
       </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2750,6 +3946,8 @@
       <c r="D165" t="n">
         <v>175</v>
       </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2764,6 +3962,8 @@
       <c r="D166" t="n">
         <v>176</v>
       </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2778,6 +3978,8 @@
       <c r="D167" t="n">
         <v>177</v>
       </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2792,6 +3994,8 @@
       <c r="D168" t="n">
         <v>178</v>
       </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AlgoritmosBusqueda.xlsx
+++ b/AlgoritmosBusqueda.xlsx
@@ -483,7 +483,7 @@
         <v>430</v>
       </c>
       <c r="F2" t="n">
-        <v>2.324691534042358</v>
+        <v>2.465951681137085</v>
       </c>
     </row>
     <row r="3">
@@ -1338,7 +1338,7 @@
         <v>180</v>
       </c>
       <c r="F2" t="n">
-        <v>1.186322450637817</v>
+        <v>1.094161748886108</v>
       </c>
     </row>
     <row r="3">
